--- a/AzureDataEngg-Project/data/EntriesGender.xlsx
+++ b/AzureDataEngg-Project/data/EntriesGender.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-DS-2024\AzureDataEngg-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEC976-D2D5-4B16-A9AA-21180C891EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -444,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,20 +756,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -796,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -810,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -824,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -838,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -852,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -866,7 +867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -880,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -894,7 +895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -908,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -922,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -936,7 +937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -950,7 +951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -964,7 +965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -978,7 +979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -992,7 +993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>135</v>
       </c>
